--- a/public/myanmar name2.xlsx
+++ b/public/myanmar name2.xlsx
@@ -404,27 +404,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>မြမြ</v>
+        <v>မကျီးပင်</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>လင်းလင်း</v>
+        <v>မန်ကျီးပင်</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>မောင်မောင်</v>
+        <v>မန်ကြီးပင်</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>မြမောင်</v>
+        <v>မက်ကြီးပင်</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ဦးလှ</v>
+        <v>မန်ကျည်းပင်</v>
       </c>
     </row>
   </sheetData>
